--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/UTAH_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/UTAH_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1276"/>
+  <dimension ref="A1:D1270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,20 +465,20 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C31">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C53">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C79">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C88">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C91">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C112">
@@ -1933,7 +1933,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C119">
@@ -2081,7 +2081,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C130">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C141">
@@ -2255,7 +2255,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2312,7 +2312,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C147">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C162">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C172">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C182">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C183">
@@ -2876,12 +2876,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C190">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C192">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C198">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C204">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C209">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C213">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C217">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C228">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C236">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C238">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C240">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C249">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C259">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C264">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C265">
@@ -3954,7 +3954,7 @@
         <v>11</v>
       </c>
       <c r="D272">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="273">
@@ -3998,13 +3998,13 @@
         <v>11</v>
       </c>
       <c r="D275">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C278">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C297">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C301">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C303">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C305">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C306">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C308">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C312">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C317">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C319">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C325">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C331">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C337">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C342">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C349">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,14 +4997,14 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C352">
         <v>11</v>
       </c>
       <c r="D352">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C354">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C356">
@@ -5082,7 +5082,7 @@
         <v>11</v>
       </c>
       <c r="D358">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="359">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C369">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C373">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C375">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C378">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C379">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C388">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C393">
@@ -5581,13 +5581,13 @@
         <v>11</v>
       </c>
       <c r="D396">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C397">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C399">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C403">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C406">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C410">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C411">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C412">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C414">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C425">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C433">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C435">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C439">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C445">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C450">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C453">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C455">
@@ -6366,7 +6366,7 @@
         <v>11</v>
       </c>
       <c r="D456">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="457">
@@ -6418,13 +6418,13 @@
         <v>11</v>
       </c>
       <c r="D460">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C461">
@@ -6457,7 +6457,7 @@
         <v>11</v>
       </c>
       <c r="D463">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="464">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C467">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C478">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C479">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C480">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C483">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C489">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C490">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C497">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C502">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C503">
@@ -6996,7 +6996,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C505">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C506">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C509">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C510">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C511">
@@ -7113,20 +7113,20 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C514">
         <v>11</v>
       </c>
       <c r="D514">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C515">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C522">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C525">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C526">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C538">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C539">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C540">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C546">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C550">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C551">
@@ -7827,7 +7827,7 @@
         <v>11</v>
       </c>
       <c r="D568">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="569">
@@ -7866,7 +7866,7 @@
         <v>11</v>
       </c>
       <c r="D571">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="572">
@@ -7885,7 +7885,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C573">
@@ -7957,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="D578">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="579">
@@ -8691,7 +8691,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C635">
@@ -8982,7 +8982,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C657">
@@ -9086,7 +9086,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C665">
@@ -9138,7 +9138,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C669">
@@ -9216,7 +9216,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C675">
@@ -9281,7 +9281,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C680">
@@ -9338,7 +9338,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C684">
@@ -9351,7 +9351,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C685">
@@ -9403,14 +9403,14 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C689">
         <v>11</v>
       </c>
       <c r="D689">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="690">
@@ -9468,7 +9468,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C694">
@@ -9642,7 +9642,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C707">
@@ -9681,7 +9681,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C710">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C715">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C717">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C722">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C726">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C729">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C730">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C731">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C734">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C742">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C761">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C784">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C797">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C800">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C807">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C833">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C834">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C835">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C836">
@@ -11337,20 +11337,20 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C837">
         <v>11</v>
       </c>
       <c r="D837">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C841">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C844">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C870">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C876">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C878">
@@ -11914,7 +11914,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C881">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C887">
@@ -12057,7 +12057,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C892">
@@ -12220,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="D904">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="905">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C907">
@@ -12317,14 +12317,14 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C912">
         <v>11</v>
       </c>
       <c r="D912">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="913">
@@ -12408,7 +12408,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C919">
@@ -12473,7 +12473,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C924">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C942">
@@ -12738,7 +12738,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C944">
@@ -12777,7 +12777,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C947">
@@ -12816,7 +12816,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C950">
@@ -12842,7 +12842,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C952">
@@ -13021,7 +13021,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C965">
@@ -13112,7 +13112,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C972">
@@ -13177,7 +13177,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C977">
@@ -13216,7 +13216,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C980">
@@ -13268,7 +13268,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C984">
@@ -13281,7 +13281,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C985">
@@ -13294,7 +13294,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C986">
@@ -13307,7 +13307,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C987">
@@ -13320,7 +13320,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C988">
@@ -13475,7 +13475,7 @@
         <v>11</v>
       </c>
       <c r="D999">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1000">
@@ -13837,7 +13837,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1027">
@@ -14070,7 +14070,7 @@
         <v>11</v>
       </c>
       <c r="D1044">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1045">
@@ -14385,7 +14385,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1068">
@@ -14398,7 +14398,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1069">
@@ -14418,7 +14418,7 @@
         <v>11</v>
       </c>
       <c r="D1070">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1071">
@@ -14437,7 +14437,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1072">
@@ -14463,7 +14463,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1074">
@@ -14489,7 +14489,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1076">
@@ -14528,7 +14528,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1079">
@@ -14645,7 +14645,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1088">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1097">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1100">
@@ -14865,7 +14865,7 @@
         <v>11</v>
       </c>
       <c r="D1104">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1105">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1107">
@@ -14923,7 +14923,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1109">
@@ -14949,7 +14949,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1111">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1120">
@@ -15079,7 +15079,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1121">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1132">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1134">
@@ -15261,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1135">
@@ -15365,7 +15365,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1143">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1148">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1149">
@@ -15463,7 +15463,7 @@
         <v>11</v>
       </c>
       <c r="D1150">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1151">
@@ -15612,7 +15612,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1162">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1163">
@@ -15664,14 +15664,14 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1166">
         <v>11</v>
       </c>
       <c r="D1166">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1167">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1173">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1175">
@@ -16028,7 +16028,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1194">
@@ -16119,7 +16119,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1201">
@@ -16467,7 +16467,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1227">
@@ -16584,7 +16584,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1236">
@@ -16649,7 +16649,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1241">
@@ -16714,7 +16714,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1246">
@@ -16727,7 +16727,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1247">
@@ -16870,20 +16870,20 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1258">
         <v>11</v>
       </c>
       <c r="D1258">
-        <v>0.0009576876197109525</v>
+        <v>0.0009576876197109524</v>
       </c>
     </row>
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1259">
@@ -16909,7 +16909,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1261">
@@ -16935,7 +16935,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1263">
@@ -17034,41 +17034,6 @@
       </c>
       <c r="D1270">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
